--- a/Consultores/09. PLANILLAS  FISCALIZACION.xlsx
+++ b/Consultores/09. PLANILLAS  FISCALIZACION.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="79">
   <si>
     <t xml:space="preserve">GOBIERNO AUTONOMO MUNICIPAL DE SACABA</t>
   </si>
@@ -905,9 +905,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>3344400</xdr:colOff>
+      <xdr:colOff>3344040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -921,7 +921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20856960" y="0"/>
-          <a:ext cx="1089000" cy="837720"/>
+          <a:ext cx="1088640" cy="837360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -947,9 +947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>3344400</xdr:colOff>
+      <xdr:colOff>3344040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -963,7 +963,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20856960" y="0"/>
-          <a:ext cx="1089000" cy="837720"/>
+          <a:ext cx="1088640" cy="837360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -989,9 +989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>3344400</xdr:colOff>
+      <xdr:colOff>3344040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1004,8 +1004,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20387160" y="0"/>
-          <a:ext cx="1089000" cy="837720"/>
+          <a:off x="20386440" y="0"/>
+          <a:ext cx="1088640" cy="837360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1031,9 +1031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>3344400</xdr:colOff>
+      <xdr:colOff>3344040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1046,8 +1046,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20387160" y="0"/>
-          <a:ext cx="1089000" cy="837720"/>
+          <a:off x="20386440" y="0"/>
+          <a:ext cx="1088640" cy="837360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,9 +1073,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>3344400</xdr:colOff>
+      <xdr:colOff>3344040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1089,7 +1089,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20528280" y="0"/>
-          <a:ext cx="1089000" cy="837720"/>
+          <a:ext cx="1088640" cy="837360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,16 +1108,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>2255400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>3344400</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3344040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1130,8 +1130,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20043720" y="0"/>
-          <a:ext cx="1089000" cy="837720"/>
+          <a:off x="20871720" y="0"/>
+          <a:ext cx="1088640" cy="837360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1326,7 +1326,7 @@
   <dimension ref="A1:DU18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="1" sqref="E:E F15"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3915,7 +3915,7 @@
   <dimension ref="A1:DU18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="1" sqref="E:E G19"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6504,7 +6504,7 @@
   <dimension ref="A1:DU24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="1" sqref="E:E F13"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10103,7 +10103,7 @@
   <dimension ref="A1:DU24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="E:E H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13699,10 +13699,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DV24"/>
+  <dimension ref="A1:DV30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13711,7 +13711,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="1" width="4.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.72"/>
@@ -17135,134 +17135,1108 @@
       <c r="DU23" s="63"/>
       <c r="DV23" s="63"/>
     </row>
-    <row r="24" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="73"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="63"/>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="63"/>
-      <c r="AK24" s="63"/>
-      <c r="AL24" s="63"/>
-      <c r="AM24" s="63"/>
-      <c r="AN24" s="63"/>
-      <c r="AO24" s="63"/>
-      <c r="AP24" s="63"/>
-      <c r="AQ24" s="63"/>
-      <c r="AR24" s="63"/>
-      <c r="AS24" s="63"/>
-      <c r="AT24" s="63"/>
-      <c r="AU24" s="63"/>
-      <c r="AV24" s="63"/>
-      <c r="AW24" s="63"/>
-      <c r="AX24" s="63"/>
-      <c r="AY24" s="63"/>
-      <c r="AZ24" s="63"/>
-      <c r="BA24" s="63"/>
-      <c r="BB24" s="63"/>
-      <c r="BC24" s="63"/>
-      <c r="BD24" s="63"/>
-      <c r="BE24" s="63"/>
-      <c r="BF24" s="63"/>
-      <c r="BG24" s="63"/>
-      <c r="BH24" s="63"/>
-      <c r="BI24" s="63"/>
-      <c r="BJ24" s="63"/>
-      <c r="BK24" s="63"/>
-      <c r="BL24" s="63"/>
-      <c r="BM24" s="63"/>
-      <c r="BN24" s="63"/>
-      <c r="BO24" s="63"/>
-      <c r="BP24" s="63"/>
-      <c r="BQ24" s="63"/>
-      <c r="BR24" s="63"/>
-      <c r="BS24" s="63"/>
-      <c r="BT24" s="63"/>
-      <c r="BU24" s="63"/>
-      <c r="BV24" s="63"/>
-      <c r="BW24" s="63"/>
-      <c r="BX24" s="63"/>
-      <c r="BY24" s="63"/>
-      <c r="BZ24" s="63"/>
-      <c r="CA24" s="63"/>
-      <c r="CB24" s="63"/>
-      <c r="CC24" s="63"/>
-      <c r="CD24" s="63"/>
-      <c r="CE24" s="63"/>
-      <c r="CF24" s="63"/>
-      <c r="CG24" s="63"/>
-      <c r="CH24" s="63"/>
-      <c r="CI24" s="63"/>
-      <c r="CJ24" s="63"/>
-      <c r="CK24" s="63"/>
-      <c r="CL24" s="63"/>
-      <c r="CM24" s="63"/>
-      <c r="CN24" s="63"/>
-      <c r="CO24" s="63"/>
-      <c r="CP24" s="63"/>
-      <c r="CQ24" s="63"/>
-      <c r="CR24" s="63"/>
-      <c r="CS24" s="63"/>
-      <c r="CT24" s="63"/>
-      <c r="CU24" s="63"/>
-      <c r="CV24" s="63"/>
-      <c r="CW24" s="63"/>
-      <c r="CX24" s="63"/>
-      <c r="CY24" s="63"/>
-      <c r="CZ24" s="63"/>
-      <c r="DA24" s="63"/>
-      <c r="DB24" s="63"/>
-      <c r="DC24" s="63"/>
-      <c r="DD24" s="63"/>
-      <c r="DE24" s="63"/>
-      <c r="DF24" s="63"/>
-      <c r="DG24" s="63"/>
-      <c r="DH24" s="63"/>
-      <c r="DI24" s="63"/>
-      <c r="DJ24" s="63"/>
-      <c r="DK24" s="63"/>
-      <c r="DL24" s="63"/>
-      <c r="DM24" s="63"/>
-      <c r="DN24" s="63"/>
-      <c r="DO24" s="63"/>
-      <c r="DP24" s="63"/>
-      <c r="DQ24" s="63"/>
-      <c r="DR24" s="63"/>
-      <c r="DS24" s="63"/>
-      <c r="DT24" s="63"/>
-      <c r="DU24" s="63"/>
-      <c r="DV24" s="63"/>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="39"/>
+      <c r="BL24" s="39"/>
+      <c r="BM24" s="39"/>
+      <c r="BN24" s="39"/>
+      <c r="BO24" s="39"/>
+      <c r="BP24" s="39"/>
+      <c r="BQ24" s="39"/>
+      <c r="BR24" s="39"/>
+      <c r="BS24" s="39"/>
+      <c r="BT24" s="39"/>
+      <c r="BU24" s="39"/>
+      <c r="BV24" s="39"/>
+      <c r="BW24" s="39"/>
+      <c r="BX24" s="39"/>
+      <c r="BY24" s="39"/>
+      <c r="BZ24" s="39"/>
+      <c r="CA24" s="39"/>
+      <c r="CB24" s="39"/>
+      <c r="CC24" s="39"/>
+      <c r="CD24" s="39"/>
+      <c r="CE24" s="39"/>
+      <c r="CF24" s="39"/>
+      <c r="CG24" s="39"/>
+      <c r="CH24" s="39"/>
+      <c r="CI24" s="39"/>
+      <c r="CJ24" s="39"/>
+      <c r="CK24" s="39"/>
+      <c r="CL24" s="39"/>
+      <c r="CM24" s="39"/>
+      <c r="CN24" s="39"/>
+      <c r="CO24" s="39"/>
+      <c r="CP24" s="39"/>
+      <c r="CQ24" s="39"/>
+      <c r="CR24" s="39"/>
+      <c r="CS24" s="39"/>
+      <c r="CT24" s="39"/>
+      <c r="CU24" s="39"/>
+      <c r="CV24" s="39"/>
+      <c r="CW24" s="39"/>
+      <c r="CX24" s="39"/>
+      <c r="CY24" s="39"/>
+      <c r="CZ24" s="39"/>
+      <c r="DA24" s="39"/>
+      <c r="DB24" s="39"/>
+      <c r="DC24" s="39"/>
+      <c r="DD24" s="39"/>
+      <c r="DE24" s="39"/>
+      <c r="DF24" s="39"/>
+      <c r="DG24" s="39"/>
+      <c r="DH24" s="39"/>
+      <c r="DI24" s="39"/>
+      <c r="DJ24" s="39"/>
+      <c r="DK24" s="39"/>
+      <c r="DL24" s="39"/>
+      <c r="DM24" s="39"/>
+      <c r="DN24" s="39"/>
+      <c r="DO24" s="39"/>
+      <c r="DP24" s="39"/>
+      <c r="DQ24" s="39"/>
+      <c r="DR24" s="39"/>
+      <c r="DS24" s="39"/>
+      <c r="DT24" s="39"/>
+      <c r="DU24" s="39"/>
+      <c r="DV24" s="39"/>
+    </row>
+    <row r="25" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="74"/>
+      <c r="C25" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="41" t="n">
+        <v>8660589</v>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>36076</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="46" t="n">
+        <v>45821</v>
+      </c>
+      <c r="J25" s="46" t="n">
+        <v>46022</v>
+      </c>
+      <c r="K25" s="47" t="n">
+        <v>18</v>
+      </c>
+      <c r="L25" s="48" t="n">
+        <v>4586</v>
+      </c>
+      <c r="M25" s="49" t="n">
+        <f aca="false">ROUND(L25/30*K25,2)</f>
+        <v>2751.6</v>
+      </c>
+      <c r="N25" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="50" t="n">
+        <f aca="false">+N25+O25+P25</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="49" t="n">
+        <f aca="false">ROUND(M25-Q25,2)</f>
+        <v>2751.6</v>
+      </c>
+      <c r="S25" s="51"/>
+      <c r="T25" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="53"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="53"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
+      <c r="BB25" s="53"/>
+      <c r="BC25" s="53"/>
+      <c r="BD25" s="53"/>
+      <c r="BE25" s="53"/>
+      <c r="BF25" s="53"/>
+      <c r="BG25" s="53"/>
+      <c r="BH25" s="53"/>
+      <c r="BI25" s="53"/>
+      <c r="BJ25" s="53"/>
+      <c r="BK25" s="53"/>
+      <c r="BL25" s="53"/>
+      <c r="BM25" s="53"/>
+      <c r="BN25" s="53"/>
+      <c r="BO25" s="53"/>
+      <c r="BP25" s="53"/>
+      <c r="BQ25" s="53"/>
+      <c r="BR25" s="53"/>
+      <c r="BS25" s="53"/>
+      <c r="BT25" s="53"/>
+      <c r="BU25" s="53"/>
+      <c r="BV25" s="53"/>
+      <c r="BW25" s="53"/>
+      <c r="BX25" s="53"/>
+      <c r="BY25" s="53"/>
+      <c r="BZ25" s="53"/>
+      <c r="CA25" s="53"/>
+      <c r="CB25" s="53"/>
+      <c r="CC25" s="53"/>
+      <c r="CD25" s="53"/>
+      <c r="CE25" s="53"/>
+      <c r="CF25" s="53"/>
+      <c r="CG25" s="53"/>
+      <c r="CH25" s="53"/>
+      <c r="CI25" s="53"/>
+      <c r="CJ25" s="53"/>
+      <c r="CK25" s="53"/>
+      <c r="CL25" s="53"/>
+      <c r="CM25" s="53"/>
+      <c r="CN25" s="53"/>
+      <c r="CO25" s="53"/>
+      <c r="CP25" s="53"/>
+      <c r="CQ25" s="53"/>
+      <c r="CR25" s="53"/>
+      <c r="CS25" s="53"/>
+      <c r="CT25" s="53"/>
+      <c r="CU25" s="53"/>
+      <c r="CV25" s="53"/>
+      <c r="CW25" s="53"/>
+      <c r="CX25" s="53"/>
+      <c r="CY25" s="53"/>
+      <c r="CZ25" s="53"/>
+      <c r="DA25" s="53"/>
+      <c r="DB25" s="53"/>
+      <c r="DC25" s="53"/>
+      <c r="DD25" s="53"/>
+      <c r="DE25" s="53"/>
+      <c r="DF25" s="53"/>
+      <c r="DG25" s="53"/>
+      <c r="DH25" s="53"/>
+      <c r="DI25" s="53"/>
+      <c r="DJ25" s="53"/>
+      <c r="DK25" s="53"/>
+      <c r="DL25" s="53"/>
+      <c r="DM25" s="53"/>
+      <c r="DN25" s="53"/>
+      <c r="DO25" s="53"/>
+      <c r="DP25" s="53"/>
+      <c r="DQ25" s="53"/>
+      <c r="DR25" s="53"/>
+      <c r="DS25" s="53"/>
+      <c r="DT25" s="53"/>
+      <c r="DU25" s="53"/>
+      <c r="DV25" s="53"/>
+    </row>
+    <row r="26" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="41" t="n">
+        <v>6471795</v>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>31908</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="46" t="n">
+        <v>45821</v>
+      </c>
+      <c r="J26" s="46" t="n">
+        <v>46022</v>
+      </c>
+      <c r="K26" s="47" t="n">
+        <v>18</v>
+      </c>
+      <c r="L26" s="48" t="n">
+        <v>4586</v>
+      </c>
+      <c r="M26" s="49" t="n">
+        <f aca="false">ROUND(L26/30*K26,2)</f>
+        <v>2751.6</v>
+      </c>
+      <c r="N26" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="50" t="n">
+        <f aca="false">+N26+O26+P26</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="49" t="n">
+        <f aca="false">ROUND(M26-Q26,2)</f>
+        <v>2751.6</v>
+      </c>
+      <c r="S26" s="51"/>
+      <c r="T26" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="53"/>
+      <c r="AJ26" s="53"/>
+      <c r="AK26" s="53"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="53"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="53"/>
+      <c r="AU26" s="53"/>
+      <c r="AV26" s="53"/>
+      <c r="AW26" s="53"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="53"/>
+      <c r="AZ26" s="53"/>
+      <c r="BA26" s="53"/>
+      <c r="BB26" s="53"/>
+      <c r="BC26" s="53"/>
+      <c r="BD26" s="53"/>
+      <c r="BE26" s="53"/>
+      <c r="BF26" s="53"/>
+      <c r="BG26" s="53"/>
+      <c r="BH26" s="53"/>
+      <c r="BI26" s="53"/>
+      <c r="BJ26" s="53"/>
+      <c r="BK26" s="53"/>
+      <c r="BL26" s="53"/>
+      <c r="BM26" s="53"/>
+      <c r="BN26" s="53"/>
+      <c r="BO26" s="53"/>
+      <c r="BP26" s="53"/>
+      <c r="BQ26" s="53"/>
+      <c r="BR26" s="53"/>
+      <c r="BS26" s="53"/>
+      <c r="BT26" s="53"/>
+      <c r="BU26" s="53"/>
+      <c r="BV26" s="53"/>
+      <c r="BW26" s="53"/>
+      <c r="BX26" s="53"/>
+      <c r="BY26" s="53"/>
+      <c r="BZ26" s="53"/>
+      <c r="CA26" s="53"/>
+      <c r="CB26" s="53"/>
+      <c r="CC26" s="53"/>
+      <c r="CD26" s="53"/>
+      <c r="CE26" s="53"/>
+      <c r="CF26" s="53"/>
+      <c r="CG26" s="53"/>
+      <c r="CH26" s="53"/>
+      <c r="CI26" s="53"/>
+      <c r="CJ26" s="53"/>
+      <c r="CK26" s="53"/>
+      <c r="CL26" s="53"/>
+      <c r="CM26" s="53"/>
+      <c r="CN26" s="53"/>
+      <c r="CO26" s="53"/>
+      <c r="CP26" s="53"/>
+      <c r="CQ26" s="53"/>
+      <c r="CR26" s="53"/>
+      <c r="CS26" s="53"/>
+      <c r="CT26" s="53"/>
+      <c r="CU26" s="53"/>
+      <c r="CV26" s="53"/>
+      <c r="CW26" s="53"/>
+      <c r="CX26" s="53"/>
+      <c r="CY26" s="53"/>
+      <c r="CZ26" s="53"/>
+      <c r="DA26" s="53"/>
+      <c r="DB26" s="53"/>
+      <c r="DC26" s="53"/>
+      <c r="DD26" s="53"/>
+      <c r="DE26" s="53"/>
+      <c r="DF26" s="53"/>
+      <c r="DG26" s="53"/>
+      <c r="DH26" s="53"/>
+      <c r="DI26" s="53"/>
+      <c r="DJ26" s="53"/>
+      <c r="DK26" s="53"/>
+      <c r="DL26" s="53"/>
+      <c r="DM26" s="53"/>
+      <c r="DN26" s="53"/>
+      <c r="DO26" s="53"/>
+      <c r="DP26" s="53"/>
+      <c r="DQ26" s="53"/>
+      <c r="DR26" s="53"/>
+      <c r="DS26" s="53"/>
+      <c r="DT26" s="53"/>
+      <c r="DU26" s="53"/>
+      <c r="DV26" s="53"/>
+    </row>
+    <row r="27" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="74"/>
+      <c r="C27" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="41" t="n">
+        <v>5295799</v>
+      </c>
+      <c r="E27" s="43" t="n">
+        <v>32419</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="46" t="n">
+        <v>45821</v>
+      </c>
+      <c r="J27" s="46" t="n">
+        <v>46022</v>
+      </c>
+      <c r="K27" s="47" t="n">
+        <v>18</v>
+      </c>
+      <c r="L27" s="48" t="n">
+        <v>4586</v>
+      </c>
+      <c r="M27" s="49" t="n">
+        <f aca="false">ROUND(L27/30*K27,2)</f>
+        <v>2751.6</v>
+      </c>
+      <c r="N27" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="50" t="n">
+        <v>76.43</v>
+      </c>
+      <c r="P27" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="50" t="n">
+        <f aca="false">+N27+O27+P27</f>
+        <v>76.43</v>
+      </c>
+      <c r="R27" s="49" t="n">
+        <f aca="false">ROUND(M27-Q27,2)</f>
+        <v>2675.17</v>
+      </c>
+      <c r="S27" s="51"/>
+      <c r="T27" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="U27" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="53"/>
+      <c r="AP27" s="53"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="53"/>
+      <c r="AS27" s="53"/>
+      <c r="AT27" s="53"/>
+      <c r="AU27" s="53"/>
+      <c r="AV27" s="53"/>
+      <c r="AW27" s="53"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="53"/>
+      <c r="AZ27" s="53"/>
+      <c r="BA27" s="53"/>
+      <c r="BB27" s="53"/>
+      <c r="BC27" s="53"/>
+      <c r="BD27" s="53"/>
+      <c r="BE27" s="53"/>
+      <c r="BF27" s="53"/>
+      <c r="BG27" s="53"/>
+      <c r="BH27" s="53"/>
+      <c r="BI27" s="53"/>
+      <c r="BJ27" s="53"/>
+      <c r="BK27" s="53"/>
+      <c r="BL27" s="53"/>
+      <c r="BM27" s="53"/>
+      <c r="BN27" s="53"/>
+      <c r="BO27" s="53"/>
+      <c r="BP27" s="53"/>
+      <c r="BQ27" s="53"/>
+      <c r="BR27" s="53"/>
+      <c r="BS27" s="53"/>
+      <c r="BT27" s="53"/>
+      <c r="BU27" s="53"/>
+      <c r="BV27" s="53"/>
+      <c r="BW27" s="53"/>
+      <c r="BX27" s="53"/>
+      <c r="BY27" s="53"/>
+      <c r="BZ27" s="53"/>
+      <c r="CA27" s="53"/>
+      <c r="CB27" s="53"/>
+      <c r="CC27" s="53"/>
+      <c r="CD27" s="53"/>
+      <c r="CE27" s="53"/>
+      <c r="CF27" s="53"/>
+      <c r="CG27" s="53"/>
+      <c r="CH27" s="53"/>
+      <c r="CI27" s="53"/>
+      <c r="CJ27" s="53"/>
+      <c r="CK27" s="53"/>
+      <c r="CL27" s="53"/>
+      <c r="CM27" s="53"/>
+      <c r="CN27" s="53"/>
+      <c r="CO27" s="53"/>
+      <c r="CP27" s="53"/>
+      <c r="CQ27" s="53"/>
+      <c r="CR27" s="53"/>
+      <c r="CS27" s="53"/>
+      <c r="CT27" s="53"/>
+      <c r="CU27" s="53"/>
+      <c r="CV27" s="53"/>
+      <c r="CW27" s="53"/>
+      <c r="CX27" s="53"/>
+      <c r="CY27" s="53"/>
+      <c r="CZ27" s="53"/>
+      <c r="DA27" s="53"/>
+      <c r="DB27" s="53"/>
+      <c r="DC27" s="53"/>
+      <c r="DD27" s="53"/>
+      <c r="DE27" s="53"/>
+      <c r="DF27" s="53"/>
+      <c r="DG27" s="53"/>
+      <c r="DH27" s="53"/>
+      <c r="DI27" s="53"/>
+      <c r="DJ27" s="53"/>
+      <c r="DK27" s="53"/>
+      <c r="DL27" s="53"/>
+      <c r="DM27" s="53"/>
+      <c r="DN27" s="53"/>
+      <c r="DO27" s="53"/>
+      <c r="DP27" s="53"/>
+      <c r="DQ27" s="53"/>
+      <c r="DR27" s="53"/>
+      <c r="DS27" s="53"/>
+      <c r="DT27" s="53"/>
+      <c r="DU27" s="53"/>
+      <c r="DV27" s="53"/>
+    </row>
+    <row r="28" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="74"/>
+      <c r="C28" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="41" t="n">
+        <v>9333158</v>
+      </c>
+      <c r="E28" s="43" t="n">
+        <v>34955</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="46" t="n">
+        <v>45821</v>
+      </c>
+      <c r="J28" s="46" t="n">
+        <v>46022</v>
+      </c>
+      <c r="K28" s="47" t="n">
+        <v>18</v>
+      </c>
+      <c r="L28" s="48" t="n">
+        <v>4586</v>
+      </c>
+      <c r="M28" s="49" t="n">
+        <f aca="false">ROUND(L28/30*K28,2)</f>
+        <v>2751.6</v>
+      </c>
+      <c r="N28" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="50" t="n">
+        <f aca="false">+N28+O28+P28</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="49" t="n">
+        <f aca="false">ROUND(M28-Q28,2)</f>
+        <v>2751.6</v>
+      </c>
+      <c r="S28" s="51"/>
+      <c r="T28" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="53"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="53"/>
+      <c r="AS28" s="53"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="53"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="53"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="53"/>
+      <c r="AZ28" s="53"/>
+      <c r="BA28" s="53"/>
+      <c r="BB28" s="53"/>
+      <c r="BC28" s="53"/>
+      <c r="BD28" s="53"/>
+      <c r="BE28" s="53"/>
+      <c r="BF28" s="53"/>
+      <c r="BG28" s="53"/>
+      <c r="BH28" s="53"/>
+      <c r="BI28" s="53"/>
+      <c r="BJ28" s="53"/>
+      <c r="BK28" s="53"/>
+      <c r="BL28" s="53"/>
+      <c r="BM28" s="53"/>
+      <c r="BN28" s="53"/>
+      <c r="BO28" s="53"/>
+      <c r="BP28" s="53"/>
+      <c r="BQ28" s="53"/>
+      <c r="BR28" s="53"/>
+      <c r="BS28" s="53"/>
+      <c r="BT28" s="53"/>
+      <c r="BU28" s="53"/>
+      <c r="BV28" s="53"/>
+      <c r="BW28" s="53"/>
+      <c r="BX28" s="53"/>
+      <c r="BY28" s="53"/>
+      <c r="BZ28" s="53"/>
+      <c r="CA28" s="53"/>
+      <c r="CB28" s="53"/>
+      <c r="CC28" s="53"/>
+      <c r="CD28" s="53"/>
+      <c r="CE28" s="53"/>
+      <c r="CF28" s="53"/>
+      <c r="CG28" s="53"/>
+      <c r="CH28" s="53"/>
+      <c r="CI28" s="53"/>
+      <c r="CJ28" s="53"/>
+      <c r="CK28" s="53"/>
+      <c r="CL28" s="53"/>
+      <c r="CM28" s="53"/>
+      <c r="CN28" s="53"/>
+      <c r="CO28" s="53"/>
+      <c r="CP28" s="53"/>
+      <c r="CQ28" s="53"/>
+      <c r="CR28" s="53"/>
+      <c r="CS28" s="53"/>
+      <c r="CT28" s="53"/>
+      <c r="CU28" s="53"/>
+      <c r="CV28" s="53"/>
+      <c r="CW28" s="53"/>
+      <c r="CX28" s="53"/>
+      <c r="CY28" s="53"/>
+      <c r="CZ28" s="53"/>
+      <c r="DA28" s="53"/>
+      <c r="DB28" s="53"/>
+      <c r="DC28" s="53"/>
+      <c r="DD28" s="53"/>
+      <c r="DE28" s="53"/>
+      <c r="DF28" s="53"/>
+      <c r="DG28" s="53"/>
+      <c r="DH28" s="53"/>
+      <c r="DI28" s="53"/>
+      <c r="DJ28" s="53"/>
+      <c r="DK28" s="53"/>
+      <c r="DL28" s="53"/>
+      <c r="DM28" s="53"/>
+      <c r="DN28" s="53"/>
+      <c r="DO28" s="53"/>
+      <c r="DP28" s="53"/>
+      <c r="DQ28" s="53"/>
+      <c r="DR28" s="53"/>
+      <c r="DS28" s="53"/>
+      <c r="DT28" s="53"/>
+      <c r="DU28" s="53"/>
+      <c r="DV28" s="53"/>
+    </row>
+    <row r="29" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="55" t="n">
+        <f aca="false">SUM(L25:L28)</f>
+        <v>18344</v>
+      </c>
+      <c r="M29" s="55" t="n">
+        <f aca="false">SUM(M25:M28)</f>
+        <v>11006.4</v>
+      </c>
+      <c r="N29" s="55" t="n">
+        <f aca="false">SUM(N25:N28)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="55" t="n">
+        <f aca="false">SUM(O25:O28)</f>
+        <v>76.43</v>
+      </c>
+      <c r="P29" s="55" t="n">
+        <f aca="false">SUM(P25:P28)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="55" t="n">
+        <f aca="false">SUM(Q25:Q28)</f>
+        <v>76.43</v>
+      </c>
+      <c r="R29" s="55" t="n">
+        <f aca="false">SUM(R25:R28)</f>
+        <v>10929.97</v>
+      </c>
+      <c r="S29" s="56"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="53"/>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="53"/>
+      <c r="AU29" s="53"/>
+      <c r="AV29" s="53"/>
+      <c r="AW29" s="53"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="53"/>
+      <c r="AZ29" s="53"/>
+      <c r="BA29" s="53"/>
+      <c r="BB29" s="53"/>
+      <c r="BC29" s="53"/>
+      <c r="BD29" s="53"/>
+      <c r="BE29" s="53"/>
+      <c r="BF29" s="53"/>
+      <c r="BG29" s="53"/>
+      <c r="BH29" s="53"/>
+      <c r="BI29" s="53"/>
+      <c r="BJ29" s="53"/>
+      <c r="BK29" s="53"/>
+      <c r="BL29" s="53"/>
+      <c r="BM29" s="53"/>
+      <c r="BN29" s="53"/>
+      <c r="BO29" s="53"/>
+      <c r="BP29" s="53"/>
+      <c r="BQ29" s="53"/>
+      <c r="BR29" s="53"/>
+      <c r="BS29" s="53"/>
+      <c r="BT29" s="53"/>
+      <c r="BU29" s="53"/>
+      <c r="BV29" s="53"/>
+      <c r="BW29" s="53"/>
+      <c r="BX29" s="53"/>
+      <c r="BY29" s="53"/>
+      <c r="BZ29" s="53"/>
+      <c r="CA29" s="53"/>
+      <c r="CB29" s="53"/>
+      <c r="CC29" s="53"/>
+      <c r="CD29" s="53"/>
+      <c r="CE29" s="53"/>
+      <c r="CF29" s="53"/>
+      <c r="CG29" s="53"/>
+      <c r="CH29" s="53"/>
+      <c r="CI29" s="53"/>
+      <c r="CJ29" s="53"/>
+      <c r="CK29" s="53"/>
+      <c r="CL29" s="53"/>
+      <c r="CM29" s="53"/>
+      <c r="CN29" s="53"/>
+      <c r="CO29" s="53"/>
+      <c r="CP29" s="53"/>
+      <c r="CQ29" s="53"/>
+      <c r="CR29" s="53"/>
+      <c r="CS29" s="53"/>
+      <c r="CT29" s="53"/>
+      <c r="CU29" s="53"/>
+      <c r="CV29" s="53"/>
+      <c r="CW29" s="53"/>
+      <c r="CX29" s="53"/>
+      <c r="CY29" s="53"/>
+      <c r="CZ29" s="53"/>
+      <c r="DA29" s="53"/>
+      <c r="DB29" s="53"/>
+      <c r="DC29" s="53"/>
+      <c r="DD29" s="53"/>
+      <c r="DE29" s="53"/>
+      <c r="DF29" s="53"/>
+      <c r="DG29" s="53"/>
+      <c r="DH29" s="53"/>
+      <c r="DI29" s="53"/>
+      <c r="DJ29" s="53"/>
+      <c r="DK29" s="53"/>
+      <c r="DL29" s="53"/>
+      <c r="DM29" s="53"/>
+      <c r="DN29" s="53"/>
+      <c r="DO29" s="53"/>
+      <c r="DP29" s="53"/>
+      <c r="DQ29" s="53"/>
+      <c r="DR29" s="53"/>
+      <c r="DS29" s="53"/>
+      <c r="DT29" s="53"/>
+      <c r="DU29" s="53"/>
+      <c r="DV29" s="53"/>
+    </row>
+    <row r="30" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="60" t="n">
+        <f aca="false">SUM(L29)</f>
+        <v>18344</v>
+      </c>
+      <c r="M30" s="60" t="n">
+        <f aca="false">SUM(M29)</f>
+        <v>11006.4</v>
+      </c>
+      <c r="N30" s="60" t="n">
+        <f aca="false">SUM(N29)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="60" t="n">
+        <f aca="false">SUM(O29)</f>
+        <v>76.43</v>
+      </c>
+      <c r="P30" s="60" t="n">
+        <f aca="false">SUM(P29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="60" t="n">
+        <f aca="false">SUM(Q29)</f>
+        <v>76.43</v>
+      </c>
+      <c r="R30" s="60" t="n">
+        <f aca="false">SUM(R29)</f>
+        <v>10929.97</v>
+      </c>
+      <c r="S30" s="61"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="63"/>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="63"/>
+      <c r="AO30" s="63"/>
+      <c r="AP30" s="63"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="63"/>
+      <c r="AU30" s="63"/>
+      <c r="AV30" s="63"/>
+      <c r="AW30" s="63"/>
+      <c r="AX30" s="63"/>
+      <c r="AY30" s="63"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
+      <c r="BB30" s="63"/>
+      <c r="BC30" s="63"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
+      <c r="BF30" s="63"/>
+      <c r="BG30" s="63"/>
+      <c r="BH30" s="63"/>
+      <c r="BI30" s="63"/>
+      <c r="BJ30" s="63"/>
+      <c r="BK30" s="63"/>
+      <c r="BL30" s="63"/>
+      <c r="BM30" s="63"/>
+      <c r="BN30" s="63"/>
+      <c r="BO30" s="63"/>
+      <c r="BP30" s="63"/>
+      <c r="BQ30" s="63"/>
+      <c r="BR30" s="63"/>
+      <c r="BS30" s="63"/>
+      <c r="BT30" s="63"/>
+      <c r="BU30" s="63"/>
+      <c r="BV30" s="63"/>
+      <c r="BW30" s="63"/>
+      <c r="BX30" s="63"/>
+      <c r="BY30" s="63"/>
+      <c r="BZ30" s="63"/>
+      <c r="CA30" s="63"/>
+      <c r="CB30" s="63"/>
+      <c r="CC30" s="63"/>
+      <c r="CD30" s="63"/>
+      <c r="CE30" s="63"/>
+      <c r="CF30" s="63"/>
+      <c r="CG30" s="63"/>
+      <c r="CH30" s="63"/>
+      <c r="CI30" s="63"/>
+      <c r="CJ30" s="63"/>
+      <c r="CK30" s="63"/>
+      <c r="CL30" s="63"/>
+      <c r="CM30" s="63"/>
+      <c r="CN30" s="63"/>
+      <c r="CO30" s="63"/>
+      <c r="CP30" s="63"/>
+      <c r="CQ30" s="63"/>
+      <c r="CR30" s="63"/>
+      <c r="CS30" s="63"/>
+      <c r="CT30" s="63"/>
+      <c r="CU30" s="63"/>
+      <c r="CV30" s="63"/>
+      <c r="CW30" s="63"/>
+      <c r="CX30" s="63"/>
+      <c r="CY30" s="63"/>
+      <c r="CZ30" s="63"/>
+      <c r="DA30" s="63"/>
+      <c r="DB30" s="63"/>
+      <c r="DC30" s="63"/>
+      <c r="DD30" s="63"/>
+      <c r="DE30" s="63"/>
+      <c r="DF30" s="63"/>
+      <c r="DG30" s="63"/>
+      <c r="DH30" s="63"/>
+      <c r="DI30" s="63"/>
+      <c r="DJ30" s="63"/>
+      <c r="DK30" s="63"/>
+      <c r="DL30" s="63"/>
+      <c r="DM30" s="63"/>
+      <c r="DN30" s="63"/>
+      <c r="DO30" s="63"/>
+      <c r="DP30" s="63"/>
+      <c r="DQ30" s="63"/>
+      <c r="DR30" s="63"/>
+      <c r="DS30" s="63"/>
+      <c r="DT30" s="63"/>
+      <c r="DU30" s="63"/>
+      <c r="DV30" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
     <mergeCell ref="A5:S5"/>
     <mergeCell ref="A6:S6"/>
     <mergeCell ref="A7:S7"/>
@@ -17286,6 +18260,9 @@
     <mergeCell ref="A11:S11"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:S24"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.236111111111111" top="0.270138888888889" bottom="0.359722222222222" header="0.511811023622047" footer="0.511811023622047"/>
@@ -17303,10 +18280,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DU18"/>
+  <dimension ref="A1:DV18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="1" sqref="E:E M22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17315,12 +18292,13 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="1" width="4.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="11" style="2" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="50.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="12" style="2" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="50.14"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17331,19 +18309,19 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="10"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="12"/>
-      <c r="T1" s="14"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="12"/>
       <c r="U1" s="14"/>
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
@@ -17449,6 +18427,7 @@
       <c r="DS1" s="14"/>
       <c r="DT1" s="14"/>
       <c r="DU1" s="14"/>
+      <c r="DV1" s="14"/>
     </row>
     <row r="2" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -17458,19 +18437,19 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="12"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
@@ -17576,6 +18555,7 @@
       <c r="DS2" s="14"/>
       <c r="DT2" s="14"/>
       <c r="DU2" s="14"/>
+      <c r="DV2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -17585,19 +18565,19 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="T3" s="14"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
@@ -17703,6 +18683,7 @@
       <c r="DS3" s="14"/>
       <c r="DT3" s="14"/>
       <c r="DU3" s="14"/>
+      <c r="DV3" s="14"/>
     </row>
     <row r="4" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
@@ -17710,19 +18691,19 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-      <c r="T4" s="14"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
@@ -17828,6 +18809,7 @@
       <c r="DS4" s="14"/>
       <c r="DT4" s="14"/>
       <c r="DU4" s="14"/>
+      <c r="DV4" s="14"/>
     </row>
     <row r="5" s="17" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
@@ -17850,7 +18832,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
-      <c r="T5" s="18"/>
+      <c r="S5" s="16"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -17956,6 +18938,7 @@
       <c r="DS5" s="18"/>
       <c r="DT5" s="18"/>
       <c r="DU5" s="18"/>
+      <c r="DV5" s="18"/>
     </row>
     <row r="6" s="17" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
@@ -17978,7 +18961,7 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
-      <c r="T6" s="18"/>
+      <c r="S6" s="16"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
@@ -18084,6 +19067,7 @@
       <c r="DS6" s="18"/>
       <c r="DT6" s="18"/>
       <c r="DU6" s="18"/>
+      <c r="DV6" s="18"/>
     </row>
     <row r="7" s="17" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
@@ -18106,7 +19090,7 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
-      <c r="T7" s="18"/>
+      <c r="S7" s="19"/>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
@@ -18212,6 +19196,7 @@
       <c r="DS7" s="18"/>
       <c r="DT7" s="18"/>
       <c r="DU7" s="18"/>
+      <c r="DV7" s="18"/>
     </row>
     <row r="8" s="17" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="20"/>
@@ -18220,19 +19205,19 @@
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="24"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
-      <c r="R8" s="21"/>
-      <c r="T8" s="18"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="21"/>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
@@ -18338,6 +19323,7 @@
       <c r="DS8" s="18"/>
       <c r="DT8" s="18"/>
       <c r="DU8" s="18"/>
+      <c r="DV8" s="18"/>
     </row>
     <row r="9" s="32" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="26" t="s">
@@ -18355,42 +19341,42 @@
       <c r="E9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="I9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="J9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="K9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="L9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="M9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="N9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="30"/>
       <c r="O9" s="30"/>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="R9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="S9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="33"/>
       <c r="U9" s="33"/>
       <c r="V9" s="33"/>
       <c r="W9" s="33"/>
@@ -18496,6 +19482,7 @@
       <c r="DS9" s="33"/>
       <c r="DT9" s="33"/>
       <c r="DU9" s="33"/>
+      <c r="DV9" s="33"/>
     </row>
     <row r="10" s="32" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="26"/>
@@ -18505,24 +19492,24 @@
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="34" t="n">
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="34" t="n">
         <v>0.16</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="O10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="36" t="s">
+      <c r="P10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="27"/>
-      <c r="T10" s="33"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="27"/>
       <c r="U10" s="33"/>
       <c r="V10" s="33"/>
       <c r="W10" s="33"/>
@@ -18628,6 +19615,7 @@
       <c r="DS10" s="33"/>
       <c r="DT10" s="33"/>
       <c r="DU10" s="33"/>
+      <c r="DV10" s="33"/>
     </row>
     <row r="11" s="38" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
@@ -18650,7 +19638,7 @@
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
-      <c r="T11" s="39"/>
+      <c r="S11" s="37"/>
       <c r="U11" s="39"/>
       <c r="V11" s="39"/>
       <c r="W11" s="39"/>
@@ -18756,6 +19744,7 @@
       <c r="DS11" s="39"/>
       <c r="DT11" s="39"/>
       <c r="DU11" s="39"/>
+      <c r="DV11" s="39"/>
     </row>
     <row r="12" s="52" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="40" t="n">
@@ -18771,30 +19760,28 @@
       <c r="E12" s="43" t="n">
         <v>36076</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="H12" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="46" t="n">
+      <c r="I12" s="46" t="n">
         <v>45821</v>
       </c>
-      <c r="I12" s="46" t="n">
+      <c r="J12" s="46" t="n">
         <v>46022</v>
       </c>
-      <c r="J12" s="47" t="n">
+      <c r="K12" s="47" t="n">
         <v>18</v>
       </c>
-      <c r="K12" s="48" t="n">
+      <c r="L12" s="48" t="n">
         <v>4586</v>
       </c>
-      <c r="L12" s="49" t="n">
-        <f aca="false">ROUND(K12/30*J12,2)</f>
+      <c r="M12" s="49" t="n">
+        <f aca="false">ROUND(L12/30*K12,2)</f>
         <v>2751.6</v>
-      </c>
-      <c r="M12" s="50" t="n">
-        <v>0</v>
       </c>
       <c r="N12" s="50" t="n">
         <v>0</v>
@@ -18803,21 +19790,23 @@
         <v>0</v>
       </c>
       <c r="P12" s="50" t="n">
-        <f aca="false">+M12+N12+O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="49" t="n">
-        <f aca="false">ROUND(L12-P12,2)</f>
+      <c r="Q12" s="50" t="n">
+        <f aca="false">+N12+O12+P12</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="49" t="n">
+        <f aca="false">ROUND(M12-Q12,2)</f>
         <v>2751.6</v>
       </c>
-      <c r="R12" s="51"/>
-      <c r="S12" s="52" t="s">
+      <c r="S12" s="51"/>
+      <c r="T12" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="53" t="s">
+      <c r="U12" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="53"/>
       <c r="V12" s="53"/>
       <c r="W12" s="53"/>
       <c r="X12" s="53"/>
@@ -18922,6 +19911,7 @@
       <c r="DS12" s="53"/>
       <c r="DT12" s="53"/>
       <c r="DU12" s="53"/>
+      <c r="DV12" s="53"/>
     </row>
     <row r="13" s="52" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="40" t="n">
@@ -18937,30 +19927,28 @@
       <c r="E13" s="43" t="n">
         <v>31908</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43"/>
+      <c r="G13" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="H13" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="46" t="n">
+      <c r="I13" s="46" t="n">
         <v>45821</v>
       </c>
-      <c r="I13" s="46" t="n">
+      <c r="J13" s="46" t="n">
         <v>46022</v>
       </c>
-      <c r="J13" s="47" t="n">
+      <c r="K13" s="47" t="n">
         <v>18</v>
       </c>
-      <c r="K13" s="48" t="n">
+      <c r="L13" s="48" t="n">
         <v>4586</v>
       </c>
-      <c r="L13" s="49" t="n">
-        <f aca="false">ROUND(K13/30*J13,2)</f>
+      <c r="M13" s="49" t="n">
+        <f aca="false">ROUND(L13/30*K13,2)</f>
         <v>2751.6</v>
-      </c>
-      <c r="M13" s="50" t="n">
-        <v>0</v>
       </c>
       <c r="N13" s="50" t="n">
         <v>0</v>
@@ -18969,21 +19957,23 @@
         <v>0</v>
       </c>
       <c r="P13" s="50" t="n">
-        <f aca="false">+M13+N13+O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="49" t="n">
-        <f aca="false">ROUND(L13-P13,2)</f>
+      <c r="Q13" s="50" t="n">
+        <f aca="false">+N13+O13+P13</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="49" t="n">
+        <f aca="false">ROUND(M13-Q13,2)</f>
         <v>2751.6</v>
       </c>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52" t="s">
+      <c r="S13" s="51"/>
+      <c r="T13" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="53" t="s">
+      <c r="U13" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="U13" s="53"/>
       <c r="V13" s="53"/>
       <c r="W13" s="53"/>
       <c r="X13" s="53"/>
@@ -19088,6 +20078,7 @@
       <c r="DS13" s="53"/>
       <c r="DT13" s="53"/>
       <c r="DU13" s="53"/>
+      <c r="DV13" s="53"/>
     </row>
     <row r="14" s="52" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="40" t="n">
@@ -19103,53 +20094,53 @@
       <c r="E14" s="43" t="n">
         <v>32419</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="H14" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="46" t="n">
+      <c r="I14" s="46" t="n">
         <v>45821</v>
       </c>
-      <c r="I14" s="46" t="n">
+      <c r="J14" s="46" t="n">
         <v>46022</v>
       </c>
-      <c r="J14" s="47" t="n">
+      <c r="K14" s="47" t="n">
         <v>18</v>
       </c>
-      <c r="K14" s="48" t="n">
+      <c r="L14" s="48" t="n">
         <v>4586</v>
       </c>
-      <c r="L14" s="49" t="n">
-        <f aca="false">ROUND(K14/30*J14,2)</f>
+      <c r="M14" s="49" t="n">
+        <f aca="false">ROUND(L14/30*K14,2)</f>
         <v>2751.6</v>
       </c>
-      <c r="M14" s="50" t="n">
+      <c r="N14" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="50" t="n">
+      <c r="O14" s="50" t="n">
         <v>76.43</v>
       </c>
-      <c r="O14" s="50" t="n">
+      <c r="P14" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="P14" s="50" t="n">
-        <f aca="false">+M14+N14+O14</f>
+      <c r="Q14" s="50" t="n">
+        <f aca="false">+N14+O14+P14</f>
         <v>76.43</v>
       </c>
-      <c r="Q14" s="49" t="n">
-        <f aca="false">ROUND(L14-P14,2)</f>
+      <c r="R14" s="49" t="n">
+        <f aca="false">ROUND(M14-Q14,2)</f>
         <v>2675.17</v>
       </c>
-      <c r="R14" s="51"/>
-      <c r="S14" s="52" t="s">
+      <c r="S14" s="51"/>
+      <c r="T14" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="T14" s="53" t="s">
+      <c r="U14" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="U14" s="53"/>
       <c r="V14" s="53"/>
       <c r="W14" s="53"/>
       <c r="X14" s="53"/>
@@ -19254,6 +20245,7 @@
       <c r="DS14" s="53"/>
       <c r="DT14" s="53"/>
       <c r="DU14" s="53"/>
+      <c r="DV14" s="53"/>
     </row>
     <row r="15" s="52" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="40" t="n">
@@ -19269,30 +20261,28 @@
       <c r="E15" s="43" t="n">
         <v>34955</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="H15" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="46" t="n">
+      <c r="I15" s="46" t="n">
         <v>45821</v>
       </c>
-      <c r="I15" s="46" t="n">
+      <c r="J15" s="46" t="n">
         <v>46022</v>
       </c>
-      <c r="J15" s="47" t="n">
+      <c r="K15" s="47" t="n">
         <v>18</v>
       </c>
-      <c r="K15" s="48" t="n">
+      <c r="L15" s="48" t="n">
         <v>4586</v>
       </c>
-      <c r="L15" s="49" t="n">
-        <f aca="false">ROUND(K15/30*J15,2)</f>
+      <c r="M15" s="49" t="n">
+        <f aca="false">ROUND(L15/30*K15,2)</f>
         <v>2751.6</v>
-      </c>
-      <c r="M15" s="50" t="n">
-        <v>0</v>
       </c>
       <c r="N15" s="50" t="n">
         <v>0</v>
@@ -19301,21 +20291,23 @@
         <v>0</v>
       </c>
       <c r="P15" s="50" t="n">
-        <f aca="false">+M15+N15+O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="49" t="n">
-        <f aca="false">ROUND(L15-P15,2)</f>
+      <c r="Q15" s="50" t="n">
+        <f aca="false">+N15+O15+P15</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="49" t="n">
+        <f aca="false">ROUND(M15-Q15,2)</f>
         <v>2751.6</v>
       </c>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52" t="s">
+      <c r="S15" s="51"/>
+      <c r="T15" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="53" t="s">
+      <c r="U15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="53"/>
       <c r="V15" s="53"/>
       <c r="W15" s="53"/>
       <c r="X15" s="53"/>
@@ -19420,6 +20412,7 @@
       <c r="DS15" s="53"/>
       <c r="DT15" s="53"/>
       <c r="DU15" s="53"/>
+      <c r="DV15" s="53"/>
     </row>
     <row r="16" s="52" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="54" t="s">
@@ -19434,41 +20427,41 @@
       <c r="H16" s="54"/>
       <c r="I16" s="54"/>
       <c r="J16" s="54"/>
-      <c r="K16" s="55" t="n">
-        <f aca="false">SUM(K12:K15)</f>
-        <v>18344</v>
-      </c>
+      <c r="K16" s="54"/>
       <c r="L16" s="55" t="n">
         <f aca="false">SUM(L12:L15)</f>
-        <v>11006.4</v>
+        <v>18344</v>
       </c>
       <c r="M16" s="55" t="n">
         <f aca="false">SUM(M12:M15)</f>
-        <v>0</v>
+        <v>11006.4</v>
       </c>
       <c r="N16" s="55" t="n">
         <f aca="false">SUM(N12:N15)</f>
-        <v>76.43</v>
+        <v>0</v>
       </c>
       <c r="O16" s="55" t="n">
         <f aca="false">SUM(O12:O15)</f>
-        <v>0</v>
+        <v>76.43</v>
       </c>
       <c r="P16" s="55" t="n">
         <f aca="false">SUM(P12:P15)</f>
-        <v>76.43</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="55" t="n">
         <f aca="false">SUM(Q12:Q15)</f>
+        <v>76.43</v>
+      </c>
+      <c r="R16" s="55" t="n">
+        <f aca="false">SUM(R12:R15)</f>
         <v>10929.97</v>
       </c>
-      <c r="R16" s="56"/>
-      <c r="T16" s="53"/>
+      <c r="S16" s="56"/>
       <c r="U16" s="53"/>
       <c r="V16" s="53"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="58"/>
       <c r="Z16" s="53"/>
       <c r="AA16" s="53"/>
       <c r="AB16" s="53"/>
@@ -19569,6 +20562,7 @@
       <c r="DS16" s="53"/>
       <c r="DT16" s="53"/>
       <c r="DU16" s="53"/>
+      <c r="DV16" s="53"/>
     </row>
     <row r="17" s="62" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="59" t="s">
@@ -19583,36 +20577,36 @@
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="59"/>
-      <c r="K17" s="60" t="n">
-        <f aca="false">SUM(K16)</f>
-        <v>18344</v>
-      </c>
+      <c r="K17" s="59"/>
       <c r="L17" s="60" t="n">
         <f aca="false">SUM(L16)</f>
-        <v>11006.4</v>
+        <v>18344</v>
       </c>
       <c r="M17" s="60" t="n">
         <f aca="false">SUM(M16)</f>
-        <v>0</v>
+        <v>11006.4</v>
       </c>
       <c r="N17" s="60" t="n">
         <f aca="false">SUM(N16)</f>
-        <v>76.43</v>
+        <v>0</v>
       </c>
       <c r="O17" s="60" t="n">
         <f aca="false">SUM(O16)</f>
-        <v>0</v>
+        <v>76.43</v>
       </c>
       <c r="P17" s="60" t="n">
         <f aca="false">SUM(P16)</f>
-        <v>76.43</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="60" t="n">
         <f aca="false">SUM(Q16)</f>
+        <v>76.43</v>
+      </c>
+      <c r="R17" s="60" t="n">
+        <f aca="false">SUM(R16)</f>
         <v>10929.97</v>
       </c>
-      <c r="R17" s="61"/>
-      <c r="T17" s="63"/>
+      <c r="S17" s="61"/>
       <c r="U17" s="63"/>
       <c r="V17" s="63"/>
       <c r="W17" s="63"/>
@@ -19718,6 +20712,7 @@
       <c r="DS17" s="63"/>
       <c r="DT17" s="63"/>
       <c r="DU17" s="63"/>
+      <c r="DV17" s="63"/>
     </row>
     <row r="18" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="64"/>
@@ -19725,19 +20720,19 @@
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
       <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="69"/>
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
-      <c r="Q18" s="73"/>
-      <c r="T18" s="63"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="73"/>
       <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
@@ -19843,32 +20838,33 @@
       <c r="DS18" s="63"/>
       <c r="DT18" s="63"/>
       <c r="DU18" s="63"/>
+      <c r="DV18" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:S7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:P9"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="A11:S11"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A17:K17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.236111111111111" top="0.320138888888889" bottom="0.440277777777778" header="0.511811023622047" footer="0.511811023622047"/>
